--- a/inputs/tempRxns_v02.xlsx
+++ b/inputs/tempRxns_v02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasools/Documents/GitHub/HumanSec/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasools/drive/scripts/HumanSec/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1024D400-3AE9-AC40-8A96-CD1C92AB534F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFA284A-311B-2F4D-A05D-CF1CE71300F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tempRxns" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="464">
   <si>
     <t>SEC61A1,  SEC61B, SEC61G</t>
   </si>
@@ -1417,15 +1417,28 @@
   </si>
   <si>
     <t>cv</t>
+  </si>
+  <si>
+    <t>gdp_trans</t>
+  </si>
+  <si>
+    <t>GDP[c] &lt;=&gt; GDP[g]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1458,7 +1471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1481,6 +1494,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1761,10 +1775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4521,6 +4535,20 @@
         <v>347</v>
       </c>
     </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
